--- a/src/Clients/Visuals/visuals/sampledata/synopticPanel-CountriesData.xlsx
+++ b/src/Clients/Visuals/visuals/sampledata/synopticPanel-CountriesData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\PowerBI-visuals\src\Clients\Visuals\visuals\sampledata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\SynopticPanelDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,12 +53,6 @@
     <t>AL</t>
   </si>
   <si>
-    <t>https://synoptic.design/wp-content/uploads/sites/251/usa.svg</t>
-  </si>
-  <si>
-    <t>https://synoptic.design/wp-content/uploads/sites/251/europe.svg</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -369,6 +363,12 @@
   </si>
   <si>
     <t>GB</t>
+  </si>
+  <si>
+    <t>https://synoptic.design/wp-content/uploads/sites/251/Europe_map.svg</t>
+  </si>
+  <si>
+    <t>https://synoptic.design/wp-content/uploads/sites/251/USA_map.svg</t>
   </si>
 </sst>
 </file>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="62.42578125" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -760,7 +760,7 @@
         <v>3298</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,16 +768,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <v>367</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,16 +785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,16 +802,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>9833</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,16 +819,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,16 +836,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -853,16 +853,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,16 +870,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>980</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,16 +887,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>590</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -904,16 +904,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,16 +921,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,16 +938,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>908</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,16 +955,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <v>9943</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -972,16 +972,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>3455</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -989,16 +989,16 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16">
         <v>775</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1006,16 +1006,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17">
         <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1026,13 +1026,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>4500</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,16 +1040,16 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>300</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,16 +1057,16 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,16 +1074,16 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,16 +1091,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>934</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,16 +1108,16 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>3509</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,16 +1125,16 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24">
         <v>980</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,16 +1142,16 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>590</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,16 +1159,16 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26">
         <v>90</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,16 +1176,16 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>333</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1193,16 +1193,16 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28">
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,16 +1210,16 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1227,16 +1227,16 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30">
         <v>3468</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,16 +1244,16 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31">
         <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,16 +1261,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32">
         <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,16 +1278,16 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33">
         <v>2294</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,16 +1295,16 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>809</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,16 +1312,16 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35">
         <v>899</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,16 +1329,16 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36">
         <v>44578</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,16 +1346,16 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37">
         <v>3094</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1363,16 +1363,16 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38">
         <v>54690</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,13 +1383,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39">
         <v>100</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,13 +1400,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40">
         <v>200</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,13 +1417,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D41">
         <v>233</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,13 +1434,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42">
         <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>221</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,13 +1468,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44">
         <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,13 +1485,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45">
         <v>345</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,13 +1502,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <v>1230</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,13 +1519,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D47">
         <v>3405</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,13 +1536,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>2094</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,13 +1553,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>344</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,13 +1587,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>3904</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,13 +1604,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>7893</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,13 +1621,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>324</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1638,13 +1638,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <v>235</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1655,13 +1655,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>6576</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1672,13 +1672,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56">
         <v>4334</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1689,13 +1689,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,13 +1706,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D58">
         <v>589</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D59">
         <v>3434</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,13 +1740,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <v>456</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,13 +1757,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61">
         <v>3468</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,13 +1774,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D62">
         <v>212</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,13 +1791,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63">
         <v>246</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,13 +1808,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D64">
         <v>789</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,13 +1825,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D65">
         <v>3224</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,13 +1842,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66">
         <v>244</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D67">
         <v>33</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,13 +1876,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D68">
         <v>268</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1893,60 +1893,25 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D69">
         <v>2445</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1"/>
-    <hyperlink ref="E3:E32" r:id="rId2" display="https://synoptic.design/wp-content/uploads/sites/251/usa.svg"/>
-    <hyperlink ref="E18" r:id="rId3"/>
-    <hyperlink ref="E15" r:id="rId4"/>
-    <hyperlink ref="E37" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E23" r:id="rId7"/>
-    <hyperlink ref="E2" r:id="rId8"/>
-    <hyperlink ref="E25" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-    <hyperlink ref="E8" r:id="rId11"/>
-    <hyperlink ref="E32" r:id="rId12"/>
-    <hyperlink ref="E30" r:id="rId13"/>
-    <hyperlink ref="E29" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E31" r:id="rId16"/>
-    <hyperlink ref="E24" r:id="rId17"/>
-    <hyperlink ref="E4" r:id="rId18"/>
-    <hyperlink ref="E9" r:id="rId19"/>
-    <hyperlink ref="E27" r:id="rId20"/>
-    <hyperlink ref="E21" r:id="rId21"/>
-    <hyperlink ref="E20" r:id="rId22"/>
-    <hyperlink ref="E11" r:id="rId23"/>
-    <hyperlink ref="E3" r:id="rId24"/>
-    <hyperlink ref="E35" r:id="rId25"/>
-    <hyperlink ref="E22" r:id="rId26"/>
-    <hyperlink ref="E14" r:id="rId27"/>
-    <hyperlink ref="E36" r:id="rId28"/>
-    <hyperlink ref="E5" r:id="rId29"/>
-    <hyperlink ref="E19" r:id="rId30"/>
-    <hyperlink ref="E10" r:id="rId31"/>
-    <hyperlink ref="E38" r:id="rId32"/>
-    <hyperlink ref="E13" r:id="rId33"/>
-    <hyperlink ref="E33" r:id="rId34"/>
-    <hyperlink ref="E28" r:id="rId35"/>
-    <hyperlink ref="E17" r:id="rId36"/>
-    <hyperlink ref="E34" r:id="rId37"/>
-    <hyperlink ref="E12" r:id="rId38"/>
-    <hyperlink ref="E26" r:id="rId39"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3:E38" r:id="rId3" display="https://synoptic.design/wp-content/uploads/sites/251/Europe_map.svg"/>
+    <hyperlink ref="E40:E69" r:id="rId4" display="https://synoptic.design/wp-content/uploads/sites/251/USA_map.svg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>